--- a/LinkedList/Test II check list (1).xlsx
+++ b/LinkedList/Test II check list (1).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HCCC\Desktop\Bergen Fall 2023\Final Exam section I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothykwon/Documents/BCC/CIS-277 Data Structures &amp; Algorithms/Code/LinkedList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB3E0C5-D7C5-4166-A2B1-0A9E9AFAA80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FE3834-30B1-9446-A2EB-2C5A85CE6967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0C7A4922-24BE-4182-8335-753AE22B9C1A}"/>
+    <workbookView xWindow="19980" yWindow="880" windowWidth="21120" windowHeight="20020" activeTab="1" xr2:uid="{0C7A4922-24BE-4182-8335-753AE22B9C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Create  a LL</t>
   </si>
@@ -148,12 +149,36 @@
     <t>Show what would happen if an attempt is made to add 
 a node with an existing ID (duplicate)</t>
   </si>
+  <si>
+    <t>Number of turn of coil= 58</t>
+  </si>
+  <si>
+    <t>Length of Coil= 1 meter</t>
+  </si>
+  <si>
+    <t>Current I [A]</t>
+  </si>
+  <si>
+    <t>Magnetic field measured</t>
+  </si>
+  <si>
+    <t>B (meas), [ ]</t>
+  </si>
+  <si>
+    <t>Magnetic field calculated</t>
+  </si>
+  <si>
+    <t>B (cal), [ ]</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +208,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -349,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,6 +413,84 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,84 +500,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,184 +818,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD8E1BB-AF51-4B6F-9C16-40AA4251C5E6}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="9"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-    </row>
-    <row r="3" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-    </row>
-    <row r="4" spans="1:14" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-    </row>
-    <row r="6" spans="1:14" ht="10.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" ht="10.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
-    </row>
-    <row r="9" spans="1:14" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:14" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="6" t="s">
         <v>15</v>
       </c>
@@ -972,373 +1005,373 @@
       <c r="L10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="39"/>
-    </row>
-    <row r="11" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="4"/>
       <c r="K11" s="8">
         <v>5</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="4"/>
       <c r="K12" s="8">
         <v>5</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="4"/>
       <c r="K13" s="8">
         <v>5</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="4"/>
       <c r="K14" s="8">
         <v>5</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="4"/>
       <c r="K15" s="8">
         <v>5</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="4"/>
       <c r="K16" s="8">
         <v>5</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="4"/>
       <c r="K17" s="8">
         <v>5</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="4"/>
       <c r="K18" s="8">
         <v>5</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="4"/>
       <c r="K19" s="8">
         <v>5</v>
       </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="4"/>
       <c r="K20" s="8">
         <v>5</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="4"/>
       <c r="K21" s="8">
         <v>5</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="4"/>
       <c r="K22" s="8">
         <v>5</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="4"/>
       <c r="K23" s="8">
         <v>5</v>
       </c>
       <c r="L23" s="4"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>14</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="4"/>
       <c r="K24" s="8">
         <v>5</v>
       </c>
       <c r="L24" s="4"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>15</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="4"/>
       <c r="K25" s="8">
         <v>20</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>16</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="4"/>
       <c r="K26" s="8">
         <v>10</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="H27" s="12" t="s">
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="H27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="10">
         <f>SUM(K11:K26)</f>
         <v>100</v>
@@ -1347,20 +1380,32 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="A1:N7"/>
@@ -1377,34 +1422,135 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96E288B-980B-4445-B308-4EA748158626}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C4" s="41">
+        <f>4*PI()*10^-7*58*A4</f>
+        <v>3.6442474781641602E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="41">
+        <v>1</v>
+      </c>
+      <c r="B5" s="41">
+        <v>0.68</v>
+      </c>
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="41">
+        <v>1.03</v>
+      </c>
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="41">
+        <v>2</v>
+      </c>
+      <c r="B7" s="41">
+        <v>1.37</v>
+      </c>
+      <c r="C7" s="41"/>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="B8" s="41">
+        <v>1.71</v>
+      </c>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="41">
+        <v>3</v>
+      </c>
+      <c r="B9" s="41">
+        <v>2.06</v>
+      </c>
+      <c r="C9" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>